--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44348</v>
+        <v>44326</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44354</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44328</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44354</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
         <v>18000</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44294</v>
+        <v>44348</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44316</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44316</v>
+        <v>44342</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44355</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44348</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44328</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
         <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44340</v>
+        <v>44299</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44358</v>
+        <v>44342</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44328</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44342</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44348</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44348</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44299</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
         <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44294</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44342</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44328</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44358</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44354</v>
+        <v>44299</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -607,29 +607,29 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
         <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44299</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44358</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44294</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44358</v>
+        <v>44316</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44328</v>
+        <v>44342</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44348</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44299</v>
+        <v>44319</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44316</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44354</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>18000</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44328</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44342</v>
+        <v>44348</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44328</v>
+        <v>44340</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44319</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44354</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44328</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44299</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44342</v>
+        <v>44316</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
         <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44348</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44319</v>
+        <v>44342</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44348</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>44358</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
         <v>18000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44348</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44319</v>
+        <v>44348</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44326</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44342</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44348</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44328</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44328</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44340</v>
+        <v>44354</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44340</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44348</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44358</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44340</v>
+        <v>44348</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44342</v>
+        <v>44319</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1247,29 +1247,29 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44316</v>
+        <v>44328</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44328</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44316</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44354</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1567,29 +1567,29 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
         <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44354</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44328</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44348</v>
+        <v>44358</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44319</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44328</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44328</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44358</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>44299</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1007,29 +1007,29 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44342</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44348</v>
+        <v>44294</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44348</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1567,29 +1567,29 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44348</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44294</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
         <v>12000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44328</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44299</v>
+        <v>44319</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44348</v>
+        <v>44299</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44354</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44328</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44319</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44294</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44348</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
         <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44348</v>
+        <v>44680</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44299</v>
+        <v>44348</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44299</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
         <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44291</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44328</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,35 +1560,115 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>150</v>
+      </c>
+      <c r="N15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>800</v>
+      </c>
+      <c r="T15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M16" t="n">
         <v>250</v>
       </c>
-      <c r="N15" t="n">
-        <v>20000</v>
-      </c>
-      <c r="O15" t="n">
-        <v>20000</v>
-      </c>
-      <c r="P15" t="n">
-        <v>20000</v>
-      </c>
-      <c r="Q15" t="inlineStr">
+      <c r="N16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="S16" t="n">
         <v>1111</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T16" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44680</v>
+        <v>44294</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44348</v>
+        <v>44680</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44348</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44358</v>
+        <v>44299</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
         <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44328</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,35 +1640,115 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>150</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>12000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>800</v>
+      </c>
+      <c r="T16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
           <t>Especial</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M17" t="n">
         <v>250</v>
       </c>
-      <c r="N16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="O16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="P16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="N17" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="S17" t="n">
         <v>1111</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T17" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44354</v>
+        <v>44342</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44299</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44354</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44328</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44348</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44680</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44355</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44294</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44680</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44348</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44291</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
         <v>15</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44692</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1487,13 +1487,13 @@
         <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44294</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44316</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,9 +1746,89 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>44358</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>100</v>
+      </c>
+      <c r="N18" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>944</v>
+      </c>
+      <c r="T18" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44328</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44348</v>
+        <v>44680</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44680</v>
+        <v>44348</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44355</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44291</v>
+        <v>44358</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>17000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44294</v>
+        <v>44316</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44316</v>
+        <v>44342</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44358</v>
+        <v>44692</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
         <v>17000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44291</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44299</v>
+        <v>44328</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44680</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44680</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44348</v>
+        <v>44319</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44692</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44316</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44691</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44342</v>
+        <v>44354</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44299</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44692</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44714</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,31 +1804,111 @@
         </is>
       </c>
       <c r="M18" t="n">
+        <v>100</v>
+      </c>
+      <c r="N18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T18" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>150</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N19" t="n">
         <v>12000</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O19" t="n">
         <v>12000</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>12000</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>$/caja 15 kilos granel</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S19" t="n">
         <v>800</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T19" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,11 +520,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>18000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44299</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -607,29 +607,29 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44692</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44680</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44319</v>
+        <v>44342</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44692</v>
+        <v>44348</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44316</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44714</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44358</v>
+        <v>44316</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44348</v>
+        <v>44680</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44354</v>
+        <v>44691</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44714</v>
+        <v>44358</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44291</v>
+        <v>44328</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44354</v>
+        <v>44328</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
         <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44692</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44680</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44342</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44348</v>
+        <v>44692</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44691</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44714</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44714</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44316</v>
+        <v>44342</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44680</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44691</v>
+        <v>44299</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1647,29 +1647,29 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44328</v>
+        <v>44348</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44328</v>
+        <v>44316</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44299</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
         <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44354</v>
+        <v>44680</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -709,7 +709,7 @@
         <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44680</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>44319</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44692</v>
+        <v>44348</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44714</v>
+        <v>44294</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44692</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44342</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44348</v>
+        <v>44714</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44680</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44680</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44328</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44319</v>
+        <v>44714</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44348</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44691</v>
+        <v>44342</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44294</v>
+        <v>44692</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>17000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44348</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1567,13 +1567,13 @@
         <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44355</v>
+        <v>44340</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44340</v>
+        <v>44355</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44714</v>
+        <v>44358</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1887,13 +1887,13 @@
         <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44316</v>
+        <v>44680</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44299</v>
+        <v>44691</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -767,29 +767,29 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44680</v>
+        <v>44348</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44692</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44691</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44348</v>
+        <v>44692</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44328</v>
+        <v>44316</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44354</v>
+        <v>44342</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44340</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44358</v>
+        <v>44319</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44680</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44714</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44299</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44294</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44692</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44714</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44692</v>
+        <v>44299</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44342</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44355</v>
+        <v>44680</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1749,7 +1749,7 @@
         <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44328</v>
+        <v>44319</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44319</v>
+        <v>44355</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44358</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44348</v>
+        <v>44358</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44328</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44328</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44354</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44342</v>
+        <v>44691</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44354</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44342</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44294</v>
+        <v>44299</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44692</v>
+        <v>44680</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44714</v>
+        <v>44355</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44692</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44294</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44680</v>
+        <v>44316</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44319</v>
+        <v>44348</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44355</v>
+        <v>44714</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44328</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44692</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44691</v>
+        <v>44328</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44354</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44342</v>
+        <v>44358</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1167,29 +1167,29 @@
         <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44680</v>
+        <v>44348</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44355</v>
+        <v>44680</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1349,7 +1349,7 @@
         <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44692</v>
+        <v>44342</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44291</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44294</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44294</v>
+        <v>44299</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44316</v>
+        <v>44291</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44348</v>
+        <v>44691</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44680</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44354</v>
+        <v>44328</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44291</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44355</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44692</v>
+        <v>44354</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44328</v>
+        <v>44692</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44358</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44348</v>
+        <v>44299</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44680</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44342</v>
+        <v>44348</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44714</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44291</v>
+        <v>44294</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
         <v>12000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44714</v>
+        <v>44316</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44680</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44328</v>
+        <v>44348</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44291</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>18000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44354</v>
+        <v>44691</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44692</v>
+        <v>44358</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -927,13 +927,13 @@
         <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44299</v>
+        <v>44692</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44355</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44348</v>
+        <v>44680</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44714</v>
+        <v>44328</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44342</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44326</v>
+        <v>44342</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44294</v>
+        <v>44714</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44691</v>
+        <v>44299</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1807,29 +1807,29 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44316</v>
+        <v>44291</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44326</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44354</v>
+        <v>44692</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44691</v>
+        <v>44299</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -847,29 +847,29 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44358</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44355</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44714</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44692</v>
+        <v>44291</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44355</v>
+        <v>44319</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44680</v>
+        <v>44348</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44714</v>
+        <v>44680</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44291</v>
+        <v>44691</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P19" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44354</v>
+        <v>44348</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44692</v>
+        <v>44354</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44691</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -847,29 +847,29 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44358</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44355</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44714</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44692</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
         <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44355</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44348</v>
+        <v>44680</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44680</v>
+        <v>44714</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44691</v>
+        <v>44291</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O19" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P19" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44354</v>
+        <v>44358</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44342</v>
+        <v>44691</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44692</v>
+        <v>44680</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44328</v>
+        <v>44316</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44355</v>
+        <v>44714</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44714</v>
+        <v>44355</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44319</v>
+        <v>44692</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44294</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44340</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44680</v>
+        <v>44342</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44328</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44691</v>
+        <v>44340</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44358</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44691</v>
+        <v>44316</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44680</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44299</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44714</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44299</v>
+        <v>44680</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>15000</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44692</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44691</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1407,13 +1407,13 @@
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44692</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44342</v>
+        <v>44328</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44328</v>
+        <v>44291</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44340</v>
+        <v>44714</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44354</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44355</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44328</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44355</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
         <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>44319</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44342</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44680</v>
+        <v>44358</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1269,7 +1269,7 @@
         <v>1000</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44691</v>
+        <v>44294</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44348</v>
+        <v>44714</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44348</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44692</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44328</v>
+        <v>44691</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44291</v>
+        <v>44692</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44714</v>
+        <v>44680</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44354</v>
+        <v>44319</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44316</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44328</v>
+        <v>44348</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44342</v>
+        <v>44316</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44299</v>
+        <v>44358</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
         <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44299</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1327,29 +1327,29 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44294</v>
+        <v>44714</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44714</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44348</v>
+        <v>44691</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44680</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44691</v>
+        <v>44291</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44692</v>
+        <v>44328</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44680</v>
+        <v>44342</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,24 +1880,24 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44358</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44348</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44355</v>
+        <v>44692</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44354</v>
+        <v>44299</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -927,29 +927,29 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
         <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>44691</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1247,13 +1247,13 @@
         <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44299</v>
+        <v>44348</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44714</v>
+        <v>44680</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44691</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44680</v>
+        <v>44714</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44291</v>
+        <v>44328</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44328</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44358</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44692</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44692</v>
+        <v>44319</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44299</v>
+        <v>44714</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -927,29 +927,29 @@
         <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44691</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>44691</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44291</v>
+        <v>44342</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44316</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44348</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44680</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1429,7 +1429,7 @@
         <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44714</v>
+        <v>44358</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1647,13 +1647,13 @@
         <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44680</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44328</v>
+        <v>45054</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44319</v>
+        <v>44328</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44714</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44714</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44691</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44342</v>
+        <v>44691</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44316</v>
+        <v>44342</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44316</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>44340</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44680</v>
+        <v>44355</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1829,7 +1829,7 @@
         <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44299</v>
+        <v>44680</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
         <v>15000</v>
@@ -1902,13 +1902,93 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>1000</v>
       </c>
       <c r="T19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>100</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos granel</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T20" t="n">
         <v>15</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44342</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44348</v>
+        <v>44691</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
         <v>20000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44714</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44348</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44691</v>
+        <v>44328</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44342</v>
+        <v>44294</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,36 +1240,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44340</v>
+        <v>44355</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44354</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44326</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44355</v>
+        <v>44680</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1829,7 +1829,7 @@
         <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44680</v>
+        <v>44340</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44299</v>
+        <v>44714</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1967,29 +1967,29 @@
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44294</v>
+        <v>45062</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44316</v>
+        <v>44294</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44355</v>
+        <v>44316</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44355</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>15</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44354</v>
+        <v>44291</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44680</v>
+        <v>44354</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1829,7 +1829,7 @@
         <v>1000</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44340</v>
+        <v>44680</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44714</v>
+        <v>44340</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>
@@ -1989,6 +1989,86 @@
         <v>1111</v>
       </c>
       <c r="T20" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>100</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T21" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44328</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
         <v>20000</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44691</v>
+        <v>44358</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44692</v>
+        <v>44358</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>17000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45054</v>
+        <v>44316</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44326</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44358</v>
+        <v>44299</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
         <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1007,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44348</v>
+        <v>44691</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44328</v>
+        <v>44692</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45062</v>
+        <v>44680</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44294</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44316</v>
+        <v>44355</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44291</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>45062</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44299</v>
+        <v>45054</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44291</v>
+        <v>44348</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44354</v>
+        <v>44342</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44680</v>
+        <v>44340</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,20 +1884,20 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44340</v>
+        <v>44714</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44714</v>
+        <v>44319</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44328</v>
+        <v>45083</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44358</v>
+        <v>44328</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44299</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44354</v>
+        <v>44299</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1007,29 +1007,29 @@
         <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
         <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44691</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,11 +1160,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>17000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44680</v>
+        <v>44692</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44680</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44355</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44291</v>
+        <v>44355</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45062</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
         <v>15</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45054</v>
+        <v>45062</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1647,17 +1647,17 @@
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44348</v>
+        <v>45054</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44342</v>
+        <v>44348</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44714</v>
+        <v>44340</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44319</v>
+        <v>44714</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2069,6 +2069,86 @@
         <v>1111</v>
       </c>
       <c r="T21" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>120</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T22" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45083</v>
+        <v>44680</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44328</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44299</v>
+        <v>45062</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44714</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44691</v>
+        <v>45054</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44692</v>
+        <v>44355</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44680</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44348</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45062</v>
+        <v>44358</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45054</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P17" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44348</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44342</v>
+        <v>44328</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44340</v>
+        <v>44691</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44714</v>
+        <v>44342</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44319</v>
+        <v>45083</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>120</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44680</v>
+        <v>45083</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44692</v>
+        <v>44328</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44354</v>
+        <v>44358</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>44358</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44316</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45062</v>
+        <v>44299</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44714</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45054</v>
+        <v>44691</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44355</v>
+        <v>44692</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44680</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44355</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44348</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44358</v>
+        <v>45062</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>45085</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N17" t="n">
         <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>17000</v>
+        <v>17357</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>45054</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44328</v>
+        <v>44348</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44691</v>
+        <v>44342</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44342</v>
+        <v>44340</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45083</v>
+        <v>44714</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2124,31 +2124,111 @@
         </is>
       </c>
       <c r="M22" t="n">
+        <v>100</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>120</v>
       </c>
-      <c r="N22" t="n">
-        <v>17000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>17000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>17000</v>
-      </c>
-      <c r="Q22" t="inlineStr">
+      <c r="N23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>944</v>
-      </c>
-      <c r="T22" t="n">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T23" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45083</v>
+        <v>44680</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44328</v>
+        <v>44692</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44316</v>
+        <v>44299</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44299</v>
+        <v>45062</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44714</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1087,13 +1087,13 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44691</v>
+        <v>45054</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44692</v>
+        <v>44355</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44680</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44340</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44348</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45062</v>
+        <v>44358</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
         <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45085</v>
+        <v>44358</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
         <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P17" t="n">
-        <v>17357</v>
+        <v>17000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45054</v>
+        <v>44316</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44348</v>
+        <v>44328</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44342</v>
+        <v>45085</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>17357</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>964</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44340</v>
+        <v>44691</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P21" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44714</v>
+        <v>44342</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
         <v>20000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44319</v>
+        <v>45083</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>120</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44340</v>
+        <v>45097</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44348</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
         <v>20000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44358</v>
+        <v>44348</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44328</v>
+        <v>44316</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45085</v>
+        <v>44328</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>17357</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>964</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44691</v>
+        <v>45085</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N21" t="n">
         <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>17000</v>
+        <v>17357</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44342</v>
+        <v>44691</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45083</v>
+        <v>44342</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,35 +2200,115 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>300</v>
+      </c>
+      <c r="N23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>1111</v>
+      </c>
+      <c r="T23" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="M24" t="n">
         <v>120</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N24" t="n">
         <v>17000</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O24" t="n">
         <v>17000</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P24" t="n">
         <v>17000</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S23" t="n">
+      <c r="S24" t="n">
         <v>944</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T24" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44680</v>
+        <v>44319</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44692</v>
+        <v>44328</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44354</v>
+        <v>44299</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -687,29 +687,29 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
         <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44294</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44348</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45062</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44714</v>
+        <v>44358</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45054</v>
+        <v>44358</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44355</v>
+        <v>44316</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45097</v>
+        <v>44355</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44342</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>45083</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44348</v>
+        <v>45097</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44358</v>
+        <v>44340</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44358</v>
+        <v>44714</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1807,13 +1807,13 @@
         <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44316</v>
+        <v>44692</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,16 +1884,16 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44328</v>
+        <v>45062</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45085</v>
+        <v>44680</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P21" t="n">
-        <v>17357</v>
+        <v>15000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44691</v>
+        <v>45054</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O22" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P22" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2142,11 +2142,11 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44342</v>
+        <v>44691</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
         <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>17000</v>
+        <v>17357</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44294</v>
+        <v>45099</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44348</v>
+        <v>44294</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44348</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44358</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44354</v>
+        <v>44316</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
         <v>18000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45083</v>
+        <v>44342</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1582,11 +1582,11 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45097</v>
+        <v>45083</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
         <v>17000</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44340</v>
+        <v>45097</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44714</v>
+        <v>44340</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44692</v>
+        <v>44714</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45062</v>
+        <v>44692</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44680</v>
+        <v>45062</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S21" t="n">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45054</v>
+        <v>44680</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2127,29 +2127,29 @@
         <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44691</v>
+        <v>45054</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O23" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P23" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45085</v>
+        <v>44691</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,31 +2284,111 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
         <v>17000</v>
       </c>
       <c r="O24" t="n">
+        <v>17000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>17000</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>944</v>
+      </c>
+      <c r="T24" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>280</v>
+      </c>
+      <c r="N25" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O25" t="n">
         <v>18000</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P25" t="n">
         <v>17357</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Provincia de Curicó</t>
         </is>
       </c>
-      <c r="S24" t="n">
+      <c r="S25" t="n">
         <v>964</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T25" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44319</v>
+        <v>45097</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44328</v>
+        <v>44299</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44299</v>
+        <v>44294</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45099</v>
+        <v>44342</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44348</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N8" t="n">
         <v>20000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44358</v>
+        <v>45099</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44358</v>
+        <v>44691</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44316</v>
+        <v>45083</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44354</v>
+        <v>45085</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N13" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
         <v>18000</v>
       </c>
       <c r="P13" t="n">
-        <v>18000</v>
+        <v>17357</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44355</v>
+        <v>44316</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44342</v>
+        <v>45062</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45083</v>
+        <v>44328</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45097</v>
+        <v>44692</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N17" t="n">
         <v>17000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44340</v>
+        <v>44714</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
         <v>20000</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44714</v>
+        <v>44348</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44692</v>
+        <v>44358</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1967,13 +1967,13 @@
         <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P20" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45062</v>
+        <v>44358</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P21" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44680</v>
+        <v>44354</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2149,7 +2149,7 @@
         <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45054</v>
+        <v>44680</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2207,29 +2207,29 @@
         <v>200</v>
       </c>
       <c r="N23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P23" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44691</v>
+        <v>44291</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,32 +2284,32 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O24" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P24" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45085</v>
+        <v>45054</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P25" t="n">
-        <v>17357</v>
+        <v>14000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>964</v>
+        <v>778</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45097</v>
+        <v>44340</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44299</v>
+        <v>45083</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44328</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44342</v>
+        <v>44691</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45099</v>
+        <v>44294</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44691</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45083</v>
+        <v>44342</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45085</v>
+        <v>45054</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>17357</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>964</v>
+        <v>778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44316</v>
+        <v>44680</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45062</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
         <v>15000</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44328</v>
+        <v>44355</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44692</v>
+        <v>45097</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>17000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44714</v>
+        <v>45085</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>17357</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>964</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44348</v>
+        <v>45062</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44358</v>
+        <v>44714</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44358</v>
+        <v>44692</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,11 +2040,11 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
         <v>17000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44354</v>
+        <v>44358</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
         <v>18000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44680</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,20 +2204,20 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44291</v>
+        <v>44348</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,36 +2280,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45054</v>
+        <v>45099</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P25" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45083</v>
+        <v>45054</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44319</v>
+        <v>44714</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44328</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44691</v>
+        <v>44680</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44291</v>
+        <v>44355</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44294</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44294</v>
+        <v>44299</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44342</v>
+        <v>45062</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45054</v>
+        <v>44328</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44680</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>45083</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44355</v>
+        <v>45085</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="N16" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
         <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>18000</v>
+        <v>17357</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45097</v>
+        <v>44316</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
         <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>17357</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45062</v>
+        <v>44358</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44714</v>
+        <v>44358</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1967,13 +1967,13 @@
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44692</v>
+        <v>44326</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44358</v>
+        <v>45097</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44358</v>
+        <v>44342</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44348</v>
+        <v>44692</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45099</v>
+        <v>44291</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44340</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45054</v>
+        <v>45083</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44714</v>
+        <v>44319</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
         <v>20000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44328</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>20000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44680</v>
+        <v>44691</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44348</v>
+        <v>44316</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N7" t="n">
         <v>20000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44355</v>
+        <v>44291</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44299</v>
+        <v>44294</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45062</v>
+        <v>44342</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44328</v>
+        <v>45054</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1422,11 +1422,11 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>44680</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45083</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45085</v>
+        <v>44355</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O16" t="n">
         <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>17357</v>
+        <v>18000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44316</v>
+        <v>45097</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45099</v>
+        <v>45085</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
         <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>17357</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44358</v>
+        <v>45062</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
         <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44358</v>
+        <v>44714</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1967,13 +1967,13 @@
         <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44326</v>
+        <v>44692</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P21" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45097</v>
+        <v>44358</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44342</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44692</v>
+        <v>44348</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44291</v>
+        <v>45099</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44691</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45054</v>
+        <v>45085</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N3" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>14000</v>
+        <v>17357</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>778</v>
+        <v>964</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44714</v>
+        <v>45054</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44680</v>
+        <v>44358</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44348</v>
+        <v>45097</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44355</v>
+        <v>44691</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>44354</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44299</v>
+        <v>44348</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>44316</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45062</v>
+        <v>44680</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>45099</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45083</v>
+        <v>44299</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45085</v>
+        <v>44714</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>17357</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>964</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44316</v>
+        <v>45062</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45099</v>
+        <v>44342</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N19" t="n">
         <v>18000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44358</v>
+        <v>44340</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45097</v>
+        <v>44692</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N22" t="n">
         <v>17000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44342</v>
+        <v>44291</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,36 +2200,36 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44692</v>
+        <v>44319</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44291</v>
+        <v>45083</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44691</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45085</v>
+        <v>45054</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P3" t="n">
-        <v>17357</v>
+        <v>14000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>964</v>
+        <v>778</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45054</v>
+        <v>44714</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44358</v>
+        <v>44319</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44358</v>
+        <v>44680</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45097</v>
+        <v>44348</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44691</v>
+        <v>44355</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44294</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44348</v>
+        <v>44299</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44316</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44680</v>
+        <v>45062</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45099</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>45083</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44714</v>
+        <v>45085</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>17357</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>964</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45062</v>
+        <v>44316</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44342</v>
+        <v>45099</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N19" t="n">
         <v>18000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44340</v>
+        <v>44358</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44328</v>
+        <v>44326</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44692</v>
+        <v>45097</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
         <v>17000</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44291</v>
+        <v>44342</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,36 +2200,36 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44319</v>
+        <v>44692</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45083</v>
+        <v>44291</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>17357</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44358</v>
+        <v>45062</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
         <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44358</v>
+        <v>45085</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N6" t="n">
         <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>17357</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45097</v>
+        <v>44319</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44691</v>
+        <v>45083</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
         <v>17000</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44354</v>
+        <v>44299</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1087,29 +1087,29 @@
         <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
         <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44316</v>
+        <v>44358</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44680</v>
+        <v>44358</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44328</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45099</v>
+        <v>44294</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,32 +1484,32 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O14" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P14" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44299</v>
+        <v>44692</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44714</v>
+        <v>44316</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,11 +1640,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N16" t="n">
         <v>20000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45062</v>
+        <v>44342</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44342</v>
+        <v>45097</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44355</v>
+        <v>44714</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44340</v>
+        <v>44326</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,11 +1960,11 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
         <v>20000</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44328</v>
+        <v>44291</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,36 +2040,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N21" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O21" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P21" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44692</v>
+        <v>44354</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P22" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44291</v>
+        <v>44691</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44319</v>
+        <v>44680</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,24 +2280,24 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45083</v>
+        <v>44340</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O25" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P25" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2382,11 +2382,11 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44680</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -549,7 +549,7 @@
         <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45099</v>
+        <v>45085</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N3" t="n">
         <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>17357</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45054</v>
+        <v>44355</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45062</v>
+        <v>44342</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,36 +760,36 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45085</v>
+        <v>44714</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>17357</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>964</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44319</v>
+        <v>45054</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O7" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P7" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>17000</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44299</v>
+        <v>44348</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44348</v>
+        <v>44319</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44358</v>
+        <v>44354</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>18000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44326</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44328</v>
+        <v>44691</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44294</v>
+        <v>44328</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44692</v>
+        <v>44294</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44714</v>
+        <v>45062</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,32 +1884,32 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44291</v>
+        <v>45083</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,32 +2044,32 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P21" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T21" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44354</v>
+        <v>44340</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2124,16 +2124,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="N22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44691</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44680</v>
+        <v>44358</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,20 +2284,20 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P24" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2306,10 +2306,10 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44340</v>
+        <v>44692</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2360,20 +2360,20 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N25" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P25" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44680</v>
+        <v>45097</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -527,17 +527,17 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>17357</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44355</v>
+        <v>44358</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
         <v>18000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44342</v>
+        <v>44358</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44714</v>
+        <v>45085</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N6" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>20000</v>
+        <v>17357</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1111</v>
+        <v>964</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45054</v>
+        <v>44291</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45099</v>
+        <v>44692</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
         <v>17000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44348</v>
+        <v>44326</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" t="n">
         <v>20000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44319</v>
+        <v>44342</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
         <v>20000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44354</v>
+        <v>45054</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P11" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44326</v>
+        <v>45083</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44691</v>
+        <v>44299</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1407,29 +1407,29 @@
         <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44328</v>
+        <v>44340</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44294</v>
+        <v>44319</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44316</v>
+        <v>45062</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44299</v>
+        <v>44354</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1727,29 +1727,29 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
         <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45097</v>
+        <v>44348</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45062</v>
+        <v>44328</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,36 +1880,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44291</v>
+        <v>44316</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,36 +1960,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N20" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45083</v>
+        <v>44355</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2040,20 +2040,20 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="N21" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O21" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P21" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44340</v>
+        <v>44680</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44358</v>
+        <v>44691</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,20 +2200,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N23" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O23" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P23" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44358</v>
+        <v>44714</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2287,13 +2287,13 @@
         <v>100</v>
       </c>
       <c r="N24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44692</v>
+        <v>44294</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2360,36 +2360,36 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P25" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45097</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45099</v>
+        <v>44342</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P6" t="n">
-        <v>17357</v>
+        <v>17000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44291</v>
+        <v>44691</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44692</v>
+        <v>44299</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44326</v>
+        <v>44291</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,36 +1080,36 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44342</v>
+        <v>44316</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45054</v>
+        <v>44319</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45083</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44340</v>
+        <v>45054</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O14" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P14" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44319</v>
+        <v>44692</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45062</v>
+        <v>44328</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44354</v>
+        <v>44714</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1727,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44348</v>
+        <v>45083</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44328</v>
+        <v>44348</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N19" t="n">
         <v>20000</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44316</v>
+        <v>44680</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,24 +1960,24 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44680</v>
+        <v>45062</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44691</v>
+        <v>45099</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44714</v>
+        <v>45085</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>17357</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1111</v>
+        <v>964</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44294</v>
+        <v>44354</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,32 +2364,32 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44294</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44342</v>
+        <v>44299</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,36 +600,36 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45097</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44691</v>
+        <v>45099</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,36 +1000,36 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44291</v>
+        <v>45062</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44316</v>
+        <v>44692</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44319</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N11" t="n">
         <v>20000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44714</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
         <v>20000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
         <v>20000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45054</v>
+        <v>44680</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1487,29 +1487,29 @@
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44692</v>
+        <v>45083</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,11 +1560,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
         <v>17000</v>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44328</v>
+        <v>45054</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44714</v>
+        <v>44348</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
         <v>20000</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
         <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>17000</v>
+        <v>17357</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44348</v>
+        <v>44354</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44680</v>
+        <v>44691</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,20 +1964,20 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P20" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44355</v>
+        <v>44328</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,16 +2044,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O21" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P21" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T21" t="n">
         <v>18</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45062</v>
+        <v>44316</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,36 +2120,36 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45099</v>
+        <v>44294</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45085</v>
+        <v>44342</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O24" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P24" t="n">
-        <v>17357</v>
+        <v>20000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2302,11 +2302,11 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>964</v>
+        <v>1111</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44354</v>
+        <v>45097</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N25" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O25" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P25" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44299</v>
+        <v>45083</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44358</v>
+        <v>44680</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -709,7 +709,7 @@
         <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44358</v>
+        <v>44691</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44299</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45099</v>
+        <v>44355</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44326</v>
+        <v>45054</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P8" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45062</v>
+        <v>44294</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44692</v>
+        <v>45062</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>45085</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>17357</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>964</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44714</v>
+        <v>44358</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44319</v>
+        <v>44358</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44680</v>
+        <v>44692</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P14" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45083</v>
+        <v>44291</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P15" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>944</v>
+        <v>800</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45054</v>
+        <v>44328</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O16" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P16" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45085</v>
+        <v>44354</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O18" t="n">
         <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>17357</v>
+        <v>18000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44354</v>
+        <v>44326</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44691</v>
+        <v>44319</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44328</v>
+        <v>44316</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44316</v>
+        <v>45099</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P22" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44294</v>
+        <v>44340</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="N23" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O23" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P23" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44342</v>
+        <v>44714</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>44355</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45083</v>
+        <v>44299</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44680</v>
+        <v>44358</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -709,7 +709,7 @@
         <v>1000</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>44358</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>45099</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45054</v>
+        <v>44326</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>45062</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>15</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45062</v>
+        <v>44692</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45085</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>17357</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>964</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44714</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44358</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44692</v>
+        <v>44680</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P14" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>45083</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44328</v>
+        <v>45054</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44354</v>
+        <v>45085</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
         <v>18000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>17357</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1822,11 +1822,11 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="T18" t="n">
         <v>18</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44326</v>
+        <v>44354</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44319</v>
+        <v>44691</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44316</v>
+        <v>44328</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45099</v>
+        <v>44316</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,20 +2120,20 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T22" t="n">
         <v>18</v>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44340</v>
+        <v>44294</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,32 +2204,32 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T23" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44714</v>
+        <v>44342</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N24" t="n">
         <v>20000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44342</v>
+        <v>45054</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45083</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44680</v>
+        <v>44691</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44691</v>
+        <v>45062</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,32 +764,32 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44299</v>
+        <v>44291</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44355</v>
+        <v>45085</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="N7" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O7" t="n">
         <v>18000</v>
       </c>
       <c r="P7" t="n">
-        <v>18000</v>
+        <v>17357</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -942,11 +942,11 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1000</v>
+        <v>964</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45054</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P8" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>778</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44294</v>
+        <v>44358</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P9" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45062</v>
+        <v>44342</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P10" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45085</v>
+        <v>44316</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N11" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O11" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P11" t="n">
-        <v>17357</v>
+        <v>20000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>964</v>
+        <v>1111</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44358</v>
+        <v>44714</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P12" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T12" t="n">
         <v>18</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44358</v>
+        <v>44319</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P13" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44692</v>
+        <v>44326</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P14" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T14" t="n">
         <v>18</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44291</v>
+        <v>44355</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N15" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O15" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P15" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44328</v>
+        <v>45083</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P16" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44348</v>
+        <v>44299</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P17" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44354</v>
+        <v>44294</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N18" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="O18" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P18" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44326</v>
+        <v>45099</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P19" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44319</v>
+        <v>45097</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1960,20 +1960,20 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P20" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44316</v>
+        <v>44328</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45099</v>
+        <v>44680</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2124,20 +2124,20 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P22" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44340</v>
+        <v>44348</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2200,11 +2200,11 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="N23" t="n">
         <v>20000</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44714</v>
+        <v>44692</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,20 +2280,20 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P24" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T24" t="n">
         <v>18</v>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45097</v>
+        <v>44354</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
@@ -2364,16 +2364,16 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O25" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P25" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T25" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45054</v>
+        <v>44294</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44291</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,32 +604,32 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1111</v>
+        <v>800</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44691</v>
+        <v>45085</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="N4" t="n">
         <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>17000</v>
+        <v>17357</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44291</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="N6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>800</v>
+        <v>1111</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45085</v>
+        <v>44680</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O7" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P7" t="n">
-        <v>17357</v>
+        <v>15000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44358</v>
+        <v>45083</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="O8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P8" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="T8" t="n">
         <v>18</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P9" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>944</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44342</v>
+        <v>45054</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P10" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1182,11 +1182,11 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1111</v>
+        <v>778</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44316</v>
+        <v>44691</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O11" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P11" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44714</v>
+        <v>44299</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
@@ -1327,29 +1327,29 @@
         <v>100</v>
       </c>
       <c r="N12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P12" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos granel</t>
+          <t>$/caja 15 kilos granel</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44319</v>
+        <v>44692</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P13" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44326</v>
+        <v>44319</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
         <v>20000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44355</v>
+        <v>44342</v>
       </c>
       <c r="E15" t="n">
         <v>7</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="N15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P15" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T15" t="n">
         <v>18</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45083</v>
+        <v>45099</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
         <v>17000</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44299</v>
+        <v>44326</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P17" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44294</v>
+        <v>45097</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -1804,32 +1804,32 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P18" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45099</v>
+        <v>44316</v>
       </c>
       <c r="E19" t="n">
         <v>7</v>
@@ -1880,20 +1880,20 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P19" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T19" t="n">
         <v>18</v>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45097</v>
+        <v>44714</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P20" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="S20" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="T20" t="n">
         <v>18</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44328</v>
+        <v>44348</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N21" t="n">
         <v>20000</v>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44680</v>
+        <v>44328</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
@@ -2120,24 +2120,24 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P22" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos granel</t>
+          <t>$/caja 18 kilos granel</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="S22" t="n">
-        <v>1000</v>
+        <v>1111</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44348</v>
+        <v>44358</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
@@ -2204,16 +2204,16 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P23" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1111</v>
+        <v>1000</v>
       </c>
       <c r="T23" t="n">
         <v>18</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44692</v>
+        <v>44358</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N24" t="n">
         <v>17000</v>
